--- a/RAG/tests/FaissAndBM25EnsembleRetriever_Phi4_res.xlsx
+++ b/RAG/tests/FaissAndBM25EnsembleRetriever_Phi4_res.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/konstantin/projects/py/ai-khrabrov/RAG/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DFC489-4229-914E-BC1B-DB0631FE8AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD76773-BC3B-AC45-B6C9-294C77A488ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>user_input</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>answer_relevancy</t>
-  </si>
-  <si>
-    <t>llm_context_precision_without_reference</t>
-  </si>
-  <si>
-    <t>faithfulness</t>
   </si>
   <si>
     <t xml:space="preserve">Напишите определения упорядоченной пары и декартова произведения множеств. Затем сформулируйте и докажите законы де Моргана для операций объединения и пересечения.
@@ -341,6 +335,253 @@
   </si>
   <si>
     <t>nv_response_groundedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформулируйте многомерную формулу Тейлора с остатком в форме Лагранжа. Примените ее к $f(x,y) = e^{{x+y}}$ в точке $(0,0)$.
+</t>
+  </si>
+  <si>
+    <t>["ационарная точка]]. Запишем [[Многомерная формула Тейлора с остатком в форме Пеано|ф-лу Тейлора]]\n&gt; $$\n&gt; f(a+h)=f(a)+\\frac{1}{2}\\sum\\limits \\frac{ \\partial^{2}f }{ \\partial x_{i}\\partial x_{j} } (a)h_{i}h_{j} + o(\\lVert h \\rVert ^{2})\n&gt; $$\n## Док-во\n\n![[Pasted image 20250618191940.png]]\n\nПусть $a$ — т. лок. макс. $\\implies \\forall x \\in U: f(x)\\leq f(a)$\n\n$g(t):= f(a+th)$, тогда $g(0)\\geq g(t)$ при мал. $t$ $\\implies 0$ — т. лок. макс. $\\implies g'(0)=0 = \\frac{ \\partial f }{ \\partial h }(a)$ (см. [[Необходимое условие экстремума]]).", '� формулы Тейлора|Lm]] $F \\in C^{r+1}[0, 1]$\n\nТогда по одномерной ф-ле Тейлора с ост. Лагранжа\n$$\n\\begin{gathered}\nf(x)=f(a+h)=F(1)\\stackrel{\\exists \\Theta \\in (0,1)}=\\sum\\limits_{i=1}^{r} \\frac{F^{(i)}(0)}{i!}\\cdot 1^{i}+\\frac{F^{(r+1)}(\\Theta)}{(r+1)!}=\\\\=\\sum\\limits_{i=1}^{r} \\frac{1}{\\cancel{ i! }}\\sum\\limits_{|k|=i} \\frac{\\cancel{ i! }}{k!} f^{(k)}(a)h^{k}+ \\frac{1}{\\cancel{ (r+1)! }} \\sum\\limits_{|k|=r+1} \\frac{\\cancel{ (r+1)! }}{k!} f^{(k)}(a+\\Theta h)h^{k} \n\\end{gathered}\n$$\n\n', 'Мн-н Тейлора степени $r$ в т. $a$ для ф-и $f$\n$$\n\\sum\\limits_{\\lvert k \\rvert \\leq r} \\frac{f^{(k)}(a)}{k!}(x-a)^{k}\n$$\n\n(см. [[Производная через мультииндекс]] и [[Функции многих переменных]], многомерное обобщение для [[Многочлен Тейлора]])', '[[Эрмитова форма]] пол. опр., если $\\forall x \\neq 0: f(x,x) \\in \\mathbb{R}_{+}$', 'ультииндекс]]). Определения, обозначения, [[Лемма для многомерной формулы Тейлора|лемма о производной композиции гладкой и линейной функций]].\n40. ! Многомерные формулы Тейлора с остатками в форме [[Многомерная формула Тейлора с остатком в форме Лагранжа|Лагранжа]] и [[Многомерная формула Тейлора с остатком в форме Пеано|Пеано]].\n41. [[Теорема Банаха о сжатии]] (само [[Сжатие простр', '$f \\in C^{r}(D),\\ f :D\\to \\mathbb{R}$, $D$ — откр. $\\subset \\mathbb{R}^{n}$, $a \\in D$\n\nТогда при $x\\to a$\n$$\nf(x)=\\sum\\limits_{|k|\\leq r} \\frac{f^{(k)}(a)}{k!}(x-a)^{k}+o(\\lVert x-a \\rVert ^{r})\n$$\n\n(см. [[Многочлен Тейлора высшей степени]], анал. [[Формула Тейлора с остатком в форме Пеано]])\n## Док-во\n\n$h:=x-a$\n\n(по [[Многомерная формула Тейлора с остатком в форме Лагранжа|ост. Лагранжа]])\n$$\n\\begin{gathered}\nf(x)=\\sum\\limits_{|k|\\leq r-1} \\frac{f^{(k)}(a)}{k!}(x-a)^{k} + \\sum\\limits_{|k|=r} \\', '$D\\subset \\mathbb{R}^{n}$ откр., $f \\in C^{r+1}(D),\\ f:D\\to \\mathbb{R},\\ [a,x]\\subset D$ (см. [[r-гладкая функция]])\nТогда существ. $\\Theta \\in (0, 1)$, т.ч. $h:=x-a$ и: \n$$\nf(x)=\\sum\\limits_{|k|\\leq r} \\frac{f^{(k)}(a)}{k!}h^{k} + \\sum\\limits_{|k|=r+1} \\frac{f^{(k)}(a+\\Theta h)}{k!}h^{k}\n$$\n(см. [[Многочлен Тейлора высшей степени]], анал [[Формула Тейлора с остатком в форме Лагранжа]])\n## Док-во\n\n$F(t):=f(a+th)$ по [[Лемма для многомерной формулы Тейлора|Lm]] $F \\in C^{r+1}[0, 1]$\n', ' [[Формула Валлиса#Следствие|Асимптотика наибольшего биномиального коэффициента]].\n9. ! [[Пар03.canvas|Пар03]] [[Формула Тейлора с остатком в интегральной форме]].\n10. [[Теорема Ламберта|Иррациональность числа π]] ([[Остатки для доказательства т Ламберта|начало док-ва]])\n11. [[Пар04.canvas|Пар04]] [[Равномерная непрерывность|Равномерная непрерывность функций: определение и примеры]]. [[Теорема Кант']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Необходимо сформулировать многомерную формулу Тейлора с остатком в форме Лагранжа и применить её к функции \( f(x, y) = e^{x+y} \) в точке \((0, 0)\).
+### Определения необходимых понятий
+#### Формула Тейлора с остатком для многомерных функций
+Пусть \( f: \mathbb{R}^n \to \mathbb{R} \) — вещественная функция, обладающая достаточным количеством непрерывно дифференцируемых частных производных. Тогда формула Тейлора с остатком в форме Лагранжа для \( f \) вокруг точки \( \mathbf{a} = (a_1, a_2, \ldots, a_n) \) до степени 1 выглядит следующим образом:
+\[
+f(\mathbf{x}) = f(\mathbf{a}) + \sum_{i=1}^{n} \frac{\partial f}{\partial x_i} (\mathbf{a}) (x_i - a_i) + R_2(\mathbf{x}),
+\]
+где \( R_2(\mathbf{x}) \) — остаточный член, который в форме Лагранжа представляется как:
+\[
+R_2(\mathbf{x}) = \frac{1}{2} \sum_{i=1}^{n}\sum_{j=1}^{n} \frac{\partial^2 f}{\partial x_i \partial x_j} (\xi) (x_i - a_i)(x_j - a_j),
+\]
+где \( \xi = \xi(\mathbf{x}) \) — некоторая точка на отрезке, соединяющем \( \mathbf{a} \) и \( \mathbf{x} \).
+### Пошаговое рассуждение
+#### Шаг 1: Вычисление необходимых производных для функции \( f(x, y) = e^{x+y} \)
+- **0-й порядок:**  
+  \( f(0, 0) = e^0 = 1. \)
+- **Первые частные производные:**
+  \[
+  \frac{\partial f}{\partial x}(x, y) = e^{x+y}, \quad \frac{\partial f}{\partial y}(x, y) = e^{x+y}.
+  \]
+  В точке \( (0, 0): \)
+  \[
+  \frac{\partial f}{\partial x}(0, 0) = 1, \quad \frac{\partial f}{\partial y}(0, 0) = 1.
+  \]
+- **Вторые частные производные:**
+  \[
+  \frac{\partial^2 f}{\partial x^2} = e^{x+y}, \quad \frac{\partial^2 f}{\partial y^2} = e^{x+y}, \quad \frac{\partial^2 f}{\partial x \partial y} = e^{x+y}.
+  \]
+  В точке \( (0, 0): \)
+  \[
+  \frac{\partial^2 f}{\partial x^2}(0, 0) = 1, \quad \frac{\partial^2 f}{\partial y^2}(0, 0) = 1, \quad \frac{\partial^2 f}{\partial x \partial y}(0, 0) = 1.
+  \]
+#### Шаг 2: Применение формулы Тейлора с остатком
+Воспользуемся многомерной формулой Тейлора до второго порядка для функции \( f(x, y) = e^{x+y} \):
+\[
+f(x, y) = f(0, 0) + \frac{\partial f}{\partial x}(0, 0)x + \frac{\partial f}{\partial y}(0, 0)y 
++ R_2(x, y).
+\]
+Подставим найденные значения:
+\[
+f(x, y) = 1 + 1\cdot x + 1\cdot y + R_2(x, y).
+\]
+Вычислим остаточный член \( R_2(x, y) \):
+\[
+R_2(x, y) = \frac{1}{2} \left( \frac{\partial^2 f}{\partial x^2}(\xi)\cdot x^2 + 2\frac{\partial^2 f}{\partial x \partial y}(\xi)\cdot xy + \frac{\partial^2 f}{\partial y^2}(\xi)\cdot y^2 \right).
+\]
+Подставим значения вторых производных:
+\[
+R_2(x, y) = \frac{1}{2} \left( e^{\xi_x + \xi_y}\cdot x^2 + 2e^{\xi_x + \xi_y}\cdot xy + e^{\xi_x + \xi_y}\cdot y^2 \right).
+\]
+Где \( \xi = (\xi_x, \xi_y) \) — точка на отрезке между \((0, 0)\) и \((x, y)\).
+### Вывод
+Таким образом, разложение функции \( f(x, y) = e^{x+y} \) около точки \((0, 0)\) с остатком в форме Лагранжа выглядит следующим образом:
+\[
+f(x, y) = 1 + x + y + \frac{e^{\xi_x + \xi_y}}{2} (x^2 + 2xy + y^2),
+\]
+где \( \xi = (\xi_x, \xi_y) \) — некоторая точка на отрезке между \((0, 0)\) и \((x, y)\).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформулируйте необходимое условие сходимости числового ряда. Приведите пример ряда, у которого $a_{n} \to 0$, но который расходится.
+</t>
+  </si>
+  <si>
+    <t>['}(x_{*})\\not\\to 0$ $\\implies$ ряд расх-ся (см. [[Теорема о сходимости функциональных рядов#^849f4e|необх. усл-е]]). *Пр-чие*.', '1. [[Функциональный ряд|Ряд]] $\\sum\\limits_{k=1}^{\\infty}u_{k}(x)$ равном. сх-ся на $E$ $\\iff r_{n}\\rightrightarrows 0$ на $E$ (см. [[Остаток ряда]])\n2. (необх. усл-е сх-ти) $\\sum\\limits_{k=1}^{\\infty}u_{k}(x)$ равном. сх-ся на $E$ $\\implies u_{k}\\rightrightarrows 0$ на $E$ (анал. [[Необходимое условие сходимости ряда в метр пр-ве]]) ^849f4e\n\n&gt;[!note] Если $\\exists x_{n} \\in E: u_{n}(x_{n})\\not\\to 0$, то $\\sum\\limits_{k=1}^{\\infty}u_{k}(x)$ не может сх-ся равном. на $E$ (из [[Критерий равномерной сходимости]])\n\n&gt;[', 'limits_{n=0}^{n} a_{n} \\frac{(x-x_{0})^{n+1}}{n+1}$ (см. [[Теорема о сходимости степенного ряда при меньших аргументах]] и [[Теорема об интегрировании равномерно сходящейся последовательности]])\n![[Pasted image 20250617214635.png]]\n', 'Числовой ряд наз-ся **сходящимся**, если $S\\in \\mathbb{R}$', 'тная сходимость]] ([[Теорема об абсолютной сходимости интеграла|th о сходимости]]). Признаки [[Признак Дирихле|Дирихле]] и [[Признак Абеля|Абеля]] ([[Замечание про необходимое условие признаков Дирихле и Абеля|замечание]]\n24. [[Пар05.canvas|Пар05]] [[Сходимость периодических функций|Интеграл от произведения монотонной и периодической функций]]. [[Примеры для признаков Дирихле-Абе', 'ядов#Следствие (пр. Лейбница)|Лейбница]].\n19. [[Признак Абеля для функ рядов|Признак Абеля]]. [[Пример для признака Дирихле функ рядов|Пример ряда, который сходится равномерно и абсолютно, но не равномерно абсолютно]].\n20. [[Признак Дини]].\n21. Теоремы о [[Перестановка пределов в функ последовательностях|перестановке пределов]] и [[Перестановка суммы и предела|перестановке предела и', 'имости сгруппированного ряда|Группировка членов ряда. Свойства.]]\n54. ! [[Пар12.canvas|Пар12]] [[Критерий сходимости для знакопостоянных рядов|Критерий сходимости ряда с неотрицательными членами]]. [[Признак сравнения для рядов|Признак сравнения. Следствия.]]', '$X$ — норм. пр-во.\n$x_{n} \\in X$\n\n$\\sum\\limits_{k=1}^{\\infty}x_{k}$ — ряд.\n\nЧастичная сумма ряда $S_{n}:=\\sum\\limits_{k=1}^{n}x_{k}$\n\nЕсли $S_{n}$ имеет предел, то он наз-ся суммой ряда, а ряд наз-ся сходящимся.\n\n&gt;[!note] Сх-ть числового ряда = предел $S_{n}$ сущ-ет и кон.\n']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Необходимо определить необходимое условие сходимости числового ряда и привести пример ряда, где члены стремятся к нулю ($a_n \to 0$), но сам ряд расходится.
+### Определение необходимых понятий
+1. **Числовой ряд**: Числовой ряд — это выражение вида
+   \[
+   \sum_{n=1}^{\infty} a_n,
+   \]
+   где \(a_n\) — члены ряда, являющиеся числами (реальными или комплексными).
+2. **Сходимость ряда**: Ряд считается сходящимся, если его последовательность частичных сумм
+   \[
+   S_N = \sum_{n=1}^{N} a_n
+   \]
+   имеет предел при \( N \to \infty \), то есть существует число \(S\), такое что для любого \(\epsilon &gt; 0\) найдется \(N_0\), при котором для всех \(N \geq N_0\) выполняется
+   \[
+   |S_N - S| &lt; \epsilon.
+   \]
+3. **Необходимое условие сходимости**: Любой сходящийся ряд должен удовлетворять следующему необходимому условию:
+   \[
+   a_n \to 0 \quad \text{при} \; n \to \infty.
+   \]
+   Это значит, что для сходимости ряда \( \sum_{n=1}^{\infty} a_n \) необходимо, чтобы последовательность его членов стремилась к нулю.
+### Пошаговое рассуждение
+Для того чтобы показать, что условие \(a_n \to 0\) является необходимым для сходимости ряда, предположим противное. Допустим, ряд
+\[
+\sum_{n=1}^{\infty} a_n
+\]
+сходится, но \(a_n \not\to 0\). Это означает, что существует \(\epsilon &gt; 0\) и бесконечно много индексов \(n\), для которых
+\[
+|a_n| \geq \epsilon.
+\]
+Это противоречит тому факту, что частичные суммы должны становиться произвольно близкими к некоторой константе \(S\) при увеличении \(N\). Ведь добавление больших по модулю (не стремящихся к нулю) членов не позволит сумме оставаться в пределах \(\epsilon\) от фиксированного числа \(S\).
+### Пример ряда, где \(a_n \to 0\), но который расходится
+Примером такого ряда является арифметический ряд (или гармонический ряд):
+\[
+\sum_{n=1}^{\infty} \frac{1}{n}.
+\]
+Для этого ряда члены
+\[
+a_n = \frac{1}{n}
+\]
+действительно стремятся к нулю при \( n \to \infty \):
+\[
+\lim_{n \to \infty} a_n = \lim_{n \to \infty} \frac{1}{n} = 0.
+\]
+Однако, этот ряд известен своей дивергенцией. Доказательство может быть выполнено посредством сравнения частичных сумм:
+- Рассмотрим частичные суммы \(S_N\) для нечётных индексов, таких как \(N = 2^k\):
+  \[
+  S_{2^k} = 1 + \left(\frac{1}{2}\right) + \left(\frac{1}{3} + \frac{1}{4}\right) + \cdots + \left(\frac{1}{2^{k-1}+1} + \cdots + \frac{1}{2^k}\right).
+  \]
+  Поскольку каждая скобка содержит числа, большие или равные \(\frac{1}{2^j}\), можно записать:
+  \[
+  S_{2^k} &gt; 1 + \frac{1}{2} + \frac{2}{4} + \cdots + \frac{2^{k-1}}{2^k}.
+  \]
+  Это приводит к неравенству:
+  \[
+  S_{2^k} &gt; 1 + \frac{1}{2} + \frac{1}{2} + \cdots + \frac{1}{2} = 1 + k\cdot\frac{1}{2}.
+  \]
+  Так как \(k\) может быть произвольно большим, сумма стремится к бесконечности.
+Таким образом, несмотря на то что члены ряда стремятся к нулю, сам ряд расходится. Это иллюстрирует необходимое условие сходимости: \(a_n \to 0\), но оно не является достаточным.
+### Вывод
+Необходимым условием сходимости числового ряда \(\sum_{n=1}^{\infty} a_n\) является \(a_n \to 0\) при \(n \to \infty\). Примером расходящегося ряда, где члены стремятся к нулю, служит гармонический ряд \(\sum_{n=1}^{\infty} \frac{1}{n}\).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сформулируйте и докажите теорему Банаха о сжатии в метрическом пространстве. Как и где применяется эта теорема?
+</t>
+  </si>
+  <si>
+    <t>[' Банаха о сжатии]] (само [[Сжатие пространства]]). Следствие.\n42. Оценки на нормы [[Оценка на норму обратного оператора|обратного отображения]] и разности значений отображения. [[Теорема об обратимости отображений близких к обратимым]].\n43. [[Теорема об обратной функции]] (существование и непрерывность обратного отображения).\n44. ==Дифференцируемость и непрерывная дифференцируемос', "х переменных]]\n## Док-во\n\n$G_{y}(x):=x+A^{-1}(y-b)$\n\nВыберем $r&gt;0$:\n$$\n\\lVert A^{-1} \\rVert \\cdot \\lVert f'(x)-A \\rVert \\leq \\frac{1}{2}\\text{ при }x \\in \\overline{B}_{r}(a)\n$$\nХотим, чтобы это было сжатием в $\\overline{B}_{r}(a)$ (для [[Теорема Банаха о сжатии]]). Поймём, что $\\lVert G_{y}'(x) \\rVert\\leq \\frac{1}{2}$ при $x \\in \\overline{B}_{r}(a)$. \n$$\nG'_{y}(x)=E+A^{-1}(-f'(x))=A^{-1}(A-f'(x))\n$$\n$$\n\\lVert G_{y}'(x) \\rVert\\leq \\lVert A^{-1} \\rVert \\cdot \\lVert A-f'(x) \\rVert \\leq \\frac{1}{2} \n$$\nПодберём $R&gt;0$, т.ч. при $y", '0}}^{x} \\lvert f(t,\\phi(t))-f(t,\\tilde{\\phi}(t)) \\rvert \\,dt\\leq\\\\\n\\leq \\max\\limits_{x}\\int\\limits_{x_{0}}^{x} M\\lVert \\phi-\\tilde{\\phi} \\rVert\\,dt=\\underbrace{ M\\delta }_{ :=\\lambda&lt;1 }\\cdot \\lvert \\phi-\\tilde{\\phi} \\rvert  \n\\end{gathered}\n$$\n\nтогда по [[Теорема Банаха о сжатии|th]] $\\exists!$ неподв. т. $y$ отобр. $T$ $\\implies$ сущ. ед-е реш. задачи Коши.', 'Пусть $A \\subset \\mathbb{N}, A\\ne\\varnothing$. Тогда в A $\\exists$ наименьший эл-т.', 'ел последовательности в метрическом пространстве. [[Предел в метрическом пр-ве|Определение]] и [[Свойства пределов в метр пр-ве|основные свойства]].\n33. [[Пар07.canvas|Пар07]] [[Теорема об арифметических действиях с пределами в нормированном пр-ве|Арифметические свойства пределов последовательности векторов]]. [[Покоординатная сходимость в пространстве столбцов|Покоординатная сходимость]] ([[Теор', 'ультииндекс]]). Определения, обозначения, [[Лемма для многомерной формулы Тейлора|лемма о производной композиции гладкой и линейной функций]].\n40. ! Многомерные формулы Тейлора с остатками в форме [[Многомерная формула Тейлора с остатком в форме Лагранжа|Лагранжа]] и [[Многомерная формула Тейлора с остатком в форме Пеано|Пеано]].\n41. [[Теорема Банаха о сжатии]] (само [[Сжатие простр', 'нная метрика]]. [[Открытые и замкнутые множества в пространстве и в подпространстве|Открытые и замкнутые множества в пространстве и в подпространстве]].\n31. ! [[Пар06.canvas|Пар06]] [[Скалярное произведение]] и [[норма]]. [[Свойства скалярного произведения|Свойства]] и примеры. [[Свойства скалярного произведения|Неравенство Коши–Буняковского]].\n32. ! [[Пар07.canvas|Пар07]] Предел последовательности в метрическом про']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Теорема Банаха о сжатии является фундаментальным результатом в топологической алгебре и функциональном анализе. Она утверждает, что любая непрерывная односторонняя сжимающая отображение (или линейное оператор) на полном метрическом пространстве имеет единственную фиксированную точку.
+### Определения необходимых понятий
+1. **Метрическое пространство**: Пара \((X, d)\), где \(X\) — множество и \(d: X \times X \to [0, \infty)\) — функция расстояния (метрика), удовлетворяющая следующим аксиомам для всех \(x, y, z \in X\):
+   - **Непрерывность**: \(d(x, y) = 0\) тогда и только тогда, когда \(x = y\).
+   - **Симметричность**: \(d(x, y) = d(y, x)\).
+   - **Треугольное неравенство**: \(d(x, z) \leq d(x, y) + d(y, z)\).
+2. **Полное метрическое пространство**: Метрическое пространство, в котором каждая Коши-последовательность сходится.
+3. **Непрерывная функция**: Отображение \(f: X \to Y\) между двумя метрическими пространствами называется непрерывным, если для любой последовательности \((x_n)\), сходящейся к \(x\), имеем \(\lim_{n \to \infty} f(x_n) = f(x)\).
+4. **Сжимающая отображение**: Отображение \(f: X \to X\) называется сжатием (или локальным сжатием), если существует постоянная \(0 &lt; c &lt; 1\), такая что для всех \(x, y \in X\): 
+   \[
+   d(f(x), f(y)) \leq c \cdot d(x, y).
+   \]
+5. **Фиксированная точка**: Элемент \(x^* \in X\) называется фиксированной точкой отображения \(f: X \to X\), если \(f(x^*) = x^*\).
+### Пошаговое рассуждение и доказательство
+**Теорема Банаха о сжатии**:  
+Пусть \((X, d)\) — полное метрическое пространство, а \(f: X \to X\) — непрерывная функция, являющаяся сжатием. Тогда у \(f\) есть ровно одна фиксированная точка.
+**Доказательство**:
+1. **Существование**:  
+   Выберем произвольную начальную точку \(x_0 \in X\). Последовательность \((x_n)\) определим рекурсивно как: 
+   \[
+   x_{n+1} = f(x_n).
+   \]
+   Так как \(f\) является сжатием, то для любых \(m &gt; n\):
+   \[
+   d(x_{n+m}, x_n) \leq c^n \cdot d(x_m, x_0).
+   \]
+   Доказывая тот факт, что последовательность \((x_n)\) является Коши-последовательностью:
+   - Пусть \(n &gt; m\). Тогда используем треугольное неравенство и свойства сжатия:
+     \[
+     d(x_{n+1}, x_n) = d(f(x_n), f(x_{n-1})) \leq c \cdot d(x_n, x_{n-1}).
+     \]
+   - Продолжая этот процесс и используя свойства геометрического ряда:
+     \[
+     d(x_{n+k}, x_n) \leq c^n \cdot d(x_k, x_0).
+     \]
+   Поскольку \(c &lt; 1\), последовательность \((x_n)\) является Коши-последовательностью. Так как пространство \(X\) полное, \((x_n)\) сходится к некоторому пределу \(x^* \in X\).
+2. **Непрерывность и фиксированная точка**:  
+   Из-за непрерывности \(f\), имеем:
+   \[
+   f(x^*) = \lim_{n \to \infty} f(x_n) = \lim_{n \to \infty} x_{n+1} = x^*.
+   \]
+3. **Уникальность**:  
+   Предположим, что есть две фиксированные точки \(x^*\) и \(y^*\). Тогда:
+   \[
+   d(x^*, y^*) = d(f(x^*), f(y^*)) \leq c \cdot d(x^*, y^*).
+   \]
+   Поскольку \(0 &lt; c &lt; 1\), следует, что \(d(x^*, y^*) = 0\) и тогда \(x^* = y^*\).
+### Применение
+Теорема Банаха о сжатии имеет широкий спектр применений:
+- **Решения дифференциальных уравнений**: В частности, для доказательства существования и единственности решений некоторых интегральных уравнений.
+- **Фиксированные точки в алгоритмах**: Применяется в методах нахождения приближенных решений, таких как итерационные процедуры в численных методах.
+- **Топологическая алгебра**: Используется для изучения структуры некоторых топологических пространств, например, в теории функционального анализа.
+Это доказательство показывает мощь и универсальность теоремы Банаха о сжатии в решении задач математического анализа.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исследуйте ряд $\sum \limits_{n=1}^{\infty} \frac{(-1)^{{n-1}}}{n}$ на абсолютную и условную сходимость.
+</t>
+  </si>
+  <si>
+    <t>['$\\sum\\limits_{n=1}^{\\infty}a_{n}$ и $\\sum\\limits_{n=1}^{\\infty}b_{n}$ — сх-ся, прич. один из них [[Абсолютная сходимость ряда|сх-ся абсол]]. Тогда $\\sum\\limits_{n=1}^{\\infty}c_{n}$ ([[Произведение рядов|из опр. произв.]]) сх-ся, причём $\\sum\\limits_{n=1}^{\\infty}c_{n}=\\sum\\limits_{n=1}^{\\infty}a_{n}\\cdot \\sum\\limits_{n=1}^{\\infty}b_{n}$.\n\n&gt;[!note]- Здесь важен порядок суммирования таблицы (см. [[Произведение рядов|опр]])\n\n&gt;[!note]- Обычной сх-ти недостаточно\n&gt; $a_{n}=b_{n}=\\frac{(-1)^{n}}', '$b_{n}\\geq 0$\n\nТогда $\\sum\\limits_{n=1}^{\\infty}(-1)^{n-1}b_{n}$ — знакочеред. ряд.\n\n(частный случай [[Знакопеременный ряд]])', '$\\sum\\limits_{n=1}^{\\infty}a_{n}$ и $\\sum\\limits_{n=1}^{\\infty}b_{n}$ — [[Абсолютная сходимость ряда|абсол. сх-ся]].\nСоставим ряд из всех произведений вида $a_{k}b_{n}$ в каком-то порядке.\n\nТогда такой ряд абсол. сх-ся и его сумма равна $\\sum\\limits_{n=1}^{\\infty}a_{n}\\cdot \\sum\\limits_{n=1}^{\\infty}b_{n}$.\n## Док-во\n\n$A_{n}:=\\sum\\limits_{k=1}^{n}a_{n}$, $B_{n}:=\\sum\\limits_{k=1}^{n}b_{n}$, $A_{n}^{*}:=\\sum\\limits_{k=1}^{n}|a_{n}|,$ $B_{n}^{*}:=\\sum\\limits_{k=1}^{n}|b_{n}|$. $A, B, A^{*},B^{*}$ — суммы соотв. ря', '$\\sum\\limits_{n=1}^{\\infty} \\frac{(-1)^{n-1}x^{n}}{n}$ на $(0,1)$\n\nСх-ся абсол. $\\sum\\limits_{n=1}^{\\infty} \\frac{x^{n}}{n}$ по [[Признак Даламбера|пр. Даламбера]].\n\nСх-ся равномерно по [[Признак Дирихле для функциональных рядов#Следствие (пр. Лейбница)|пр. Лейбница]]: $b_{n} = \\frac{x^{n}}{n}\\rightrightarrows 0$ ($\\sup\\limits=\\frac{1}{n}$) и монот.\n\nНо ряд $\\sum\\limits_{n=1}^{\\infty} \\frac{x^{n}}{n}$не сх-ся равном. Возьмём $\\varepsilon =\\frac{1}{2}$\n$$\n\\sum\\limits_{k=n+1}^{2n} \\frac{x^{k}}{k} \\stackrel{x\\to 1', "$u_{n} \\in C^{1}[a,b],\\ c \\in [a,b]$, ряд $\\sum\\limits_{n=1}^{\\infty}u_{n}(c)$ — [[Сходящийся ряд|сх-ся]], ряд $\\sum\\limits_{n=1}^{\\infty}u_{n}'$ сх-ся равном. на $[a,b]$\n\nТогда $\\sum\\limits_{n=1}^{\\infty}u_{n}$ сх-ся равном. на $[a,b]$ к нек. непр.-дифф. ф-и и производная суммы ряда это сумма ряда производных.\n\n&gt;[!note]- Равном. сх-ти ряда $\\sum\\limits_{n=1}^{\\infty}u_{n}$ недост.\n&gt; $$\n&gt; \\sum\\limits_{n=1}^{\\infty} \\frac{\\sin nx}{n^{2}},\\ \\left\\lvert  \\frac{\\sin nx}{n^{2}}  \\right\\rvert \\leq \\frac{1}{n^{2}}\\implies\\text{равном. с", '$R \\in (0, +\\infty)$ — [[радиус сходимости]] нек. ряда. $\\sum\\limits_{n=0}^{\\infty}a_{n}z^{n}$ и ряд сх-ся при $z=R$.\n\nТогда ряд сх-ся равном. на $[0, R]$. В частности $\\lim\\limits_{ x \\to R- }\\sum\\limits_{n=0}^{\\infty}a_{n}x^{n}=\\sum\\limits_{n=0}^{\\infty}a_{n}R^{n}$.\n## Док-во\n\nПрименить [[Признак Абеля для функ рядов]]\n1. $\\sum\\limits_{n=0}^{\\infty}a_{n}R^{n}$ — сх-ся (равном.)\n2. $\\left( \\frac{x}{R} \\right)^{n}$ монот.\n3. $\\left( \\frac{x}{R} \\right)^{n}\\leq 1$ — [[Равномерно ограниченная функ последовательность|ра', '$a_{n}\\geq 0$\n1. если $\\sqrt[n]{a_{n}}\\leq q&lt;1$ НСНМ, то ряд $\\sum\\limits_{n=1}^{+\\infty}a_{n}$ сх-ся\n2. $q_{*}:=\\overline{\\lim}\\sqrt[n]{a_{n}}$. Если $q_{*}&lt;1$, то ряд сх-ся, если $q_{*}&gt;1$, то ряд расх-ся (более того, $a_{n}\\not \\to 0$).\n\n&gt;[!note]- Если $q_{*}=1$, то ряд может сх-ся и расх-ся\n&gt; 1. $\\sum\\limits_{n=1}^{\\infty} \\frac{1}{n}$ — расх-ся, но $\\sqrt[n]{a_{n}}=\\frac{1}{\\sqrt[n]{a_{n}}}\\to 1$\n&gt; 2. $\\sum\\limits_{n=1}^{\\infty} \\frac{1}{n(n+1)}$ — сх-ся, но $\\sqrt[n]{a_{n}}=\\frac{1}{\\sqrt[n]{n}\\sqrt[n]{n+1}}\\to 1$\n\n(см. [[Зна', '� т.к. ряд сх-ся, то это и есть сумма ряда.']</t>
+  </si>
+  <si>
+    <t>### Формулировка задачи
+Мы рассматриваем ряд:
+\[
+\sum_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}
+\]
+Цель состоит в том, чтобы исследовать его на абсолютную и условную сходимость.
+### Определения необходимых понятий
+1. **Абсолютная сходимость** ряда \(\sum a_n\) означает, что ряд из модулей \(\sum |a_n|\) сходится.
+2. **Условная сходимость** ряда \(\sum a_n\) происходит, если сам ряд \(\sum a_n\) сходится, но не абсолютно.
+### Изучение ряда
+#### Абсолютная сходимость
+Для проверки абсолютной сходимости рассмотрим ряд из модулей:
+\[
+\sum_{n=1}^{\infty} \left|\frac{(-1)^{n-1}}{n}\right| = \sum_{n=1}^{\infty} \frac{1}{n}
+\]
+Это гармонический ряд, который известен своей дивергенцией. Действительно, можно показать его дивергенцию с помощью интегрального критерия:
+- Рассмотрим функцию \(f(x) = \frac{1}{x}\), которая монотонно убывает и положительна для \(x &gt; 0\).
+- Интегрируем от 1 до \(\infty\):
+  \[
+  \int_1^{\infty} \frac{1}{x} \, dx = \lim_{t \to \infty} \left[ \ln x \right]_1^t = \lim_{t \to \infty} (\ln t - \ln 1) = \infty
+  \]
+Таким образом, по интегральному критерию ряд \(\sum_{n=1}^{\infty} \frac{1}{n}\) дивергирует.
+Следовательно, исходный ряд не абсолютно сходится.
+#### Условная сходимость
+Изучим условную сходимость. Рассматриваемый ряд:
+\[
+\sum_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}
+\]
+является альтернирующим рядом вида \(\sum (-1)^{n-1} b_n\) с \(b_n = \frac{1}{n}\).
+Для доказательства условной сходимости используем критерий Коши для альтернирующих рядов:
+1. Последовательность \(b_n = \frac{1}{n}\) монотонно убывает.
+2. \(\lim_{n \to \infty} b_n = \lim_{n \to \infty} \frac{1}{n} = 0\).
+Оба условия критерия Коши выполняются, следовательно, ряд \(\sum_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}\) сходится.
+### Вывод
+Ряд \(\sum_{n=1}^{\infty} \frac{(-1)^{n-1}}{n}\):
+- **Не абсолютно сходится**, так как ряд из модулей, гармонический ряд \(\sum_{n=1}^{\infty} \frac{1}{n}\), дивергирует.
+- **Условно сходится** благодаря выполнению условий критерия Коши для альтернирующих рядов.
+Таким образом, данный ряд является классическим примером условно сходящегося альтернирующего ряда.</t>
   </si>
 </sst>
 </file>
@@ -704,15 +945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="294" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,88 +967,70 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2">
         <v>0.86235539100157699</v>
       </c>
       <c r="F2">
-        <v>0.80555555552870362</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.94594594594594594</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>0.82098443505188223</v>
       </c>
       <c r="F3">
-        <v>0.99999999989999999</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
       <c r="E4">
         <v>0.87853356733526533</v>
@@ -816,97 +1039,172 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>0.86946834774166126</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5">
-        <v>0.95</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
       <c r="E6">
         <v>0.86699215290108567</v>
       </c>
       <c r="F6">
-        <v>0.68055555553287028</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>0.83982432889007086</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0.85595208461352568</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>0.82812057364048508</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>0.86515674262961972</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>